--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>BikeNames</t>
   </si>
@@ -34,37 +34,73 @@
     <t>Error Message</t>
   </si>
   <si>
-    <t>Hyundai Elite i20</t>
-  </si>
-  <si>
-    <t>Rs. 4.56 Lakh - 7.32 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Grand i10</t>
-  </si>
-  <si>
-    <t>Rs. 3.81 Lakh - 6.13 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Amaze</t>
-  </si>
-  <si>
-    <t>Rs. 3.97 Lakh - 9.77 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Alto K10</t>
-  </si>
-  <si>
-    <t>Rs. 2.19 Lakh - 3.54 Lakh</t>
-  </si>
-  <si>
-    <t>Tata NEXON</t>
-  </si>
-  <si>
-    <t>Rs. 5.85 Lakh - 10.96 Lakh</t>
-  </si>
-  <si>
-    <t>Couldn’t find your Google Account</t>
+    <t>Honda CBR150R</t>
+  </si>
+  <si>
+    <t>₹ 1.70 Lakh*</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300</t>
+  </si>
+  <si>
+    <t>₹ 2.30 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda NX200</t>
+  </si>
+  <si>
+    <t>₹ 1.20 Lakh*</t>
+  </si>
+  <si>
+    <t>August 2024</t>
+  </si>
+  <si>
+    <t>Honda Hornet</t>
+  </si>
+  <si>
+    <t>₹ 2.50 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda XRE 300</t>
+  </si>
+  <si>
+    <t>₹ 3.00 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda CBR300R</t>
+  </si>
+  <si>
+    <t>₹ 2.00 - ₹ 2.30 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda NT1100</t>
+  </si>
+  <si>
+    <t>Honda CRF300L</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cafe Racer</t>
+  </si>
+  <si>
+    <t>₹ 2.20 - ₹ 2.30 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda CRF300 Rally</t>
+  </si>
+  <si>
+    <t>₹ 3.50 Lakh*</t>
+  </si>
+  <si>
+    <t>Honda CRF190L</t>
+  </si>
+  <si>
+    <t>₹ 1.98 Lakh*</t>
+  </si>
+  <si>
+    <t>September 2024</t>
   </si>
 </sst>
 </file>
@@ -109,7 +145,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,6 +162,127 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -133,7 +290,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -147,46 +304,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -194,7 +311,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -205,11 +322,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>BikeNames</t>
   </si>
@@ -101,6 +101,39 @@
   </si>
   <si>
     <t>September 2024</t>
+  </si>
+  <si>
+    <t>Maruti Baleno</t>
+  </si>
+  <si>
+    <t>Rs. 5.29 Lakh - 7.59 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Brio</t>
+  </si>
+  <si>
+    <t>Rs. 4.03 Lakh - 5.25 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai NEW I20</t>
+  </si>
+  <si>
+    <t>Rs. 2.86 Lakh - 8.04 Lakh</t>
+  </si>
+  <si>
+    <t>Tata NEXON</t>
+  </si>
+  <si>
+    <t>Rs. 5.85 Lakh - 11.16 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Elite i20</t>
+  </si>
+  <si>
+    <t>Rs. 4.47 Lakh - 7.32 Lakh</t>
+  </si>
+  <si>
+    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -290,7 +323,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -304,6 +337,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -311,7 +384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,6 +395,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>BikeNames</t>
   </si>
@@ -34,6 +34,24 @@
     <t>Error Message</t>
   </si>
   <si>
+    <t>Honda CBR300R</t>
+  </si>
+  <si>
+    <t>₹ 2.00 - ₹ 2.30 Lakh*</t>
+  </si>
+  <si>
+    <t>August 2024</t>
+  </si>
+  <si>
+    <t>Honda CRF190L</t>
+  </si>
+  <si>
+    <t>₹ 1.98 Lakh*</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
     <t>Honda CBR150R</t>
   </si>
   <si>
@@ -43,6 +61,9 @@
     <t>July 2024</t>
   </si>
   <si>
+    <t>Honda NT1100</t>
+  </si>
+  <si>
     <t>Honda Rebel 300</t>
   </si>
   <si>
@@ -55,7 +76,10 @@
     <t>₹ 1.20 Lakh*</t>
   </si>
   <si>
-    <t>August 2024</t>
+    <t>Honda CRF300L</t>
+  </si>
+  <si>
+    <t>₹ 3.00 Lakh*</t>
   </si>
   <si>
     <t>Honda Hornet</t>
@@ -67,21 +91,6 @@
     <t>Honda XRE 300</t>
   </si>
   <si>
-    <t>₹ 3.00 Lakh*</t>
-  </si>
-  <si>
-    <t>Honda CBR300R</t>
-  </si>
-  <si>
-    <t>₹ 2.00 - ₹ 2.30 Lakh*</t>
-  </si>
-  <si>
-    <t>Honda NT1100</t>
-  </si>
-  <si>
-    <t>Honda CRF300L</t>
-  </si>
-  <si>
     <t>Honda CB350 Cafe Racer</t>
   </si>
   <si>
@@ -94,13 +103,16 @@
     <t>₹ 3.50 Lakh*</t>
   </si>
   <si>
-    <t>Honda CRF190L</t>
-  </si>
-  <si>
-    <t>₹ 1.98 Lakh*</t>
-  </si>
-  <si>
-    <t>September 2024</t>
+    <t>Honda Jazz</t>
+  </si>
+  <si>
+    <t>Rs. 4.23 Lakh - 7.89 Lakh</t>
+  </si>
+  <si>
+    <t>Ford Ecosport</t>
+  </si>
+  <si>
+    <t>Rs. 5.33 Lakh - 8.99 Lakh</t>
   </si>
   <si>
     <t>Maruti Baleno</t>
@@ -119,21 +131,6 @@
   </si>
   <si>
     <t>Rs. 2.86 Lakh - 8.04 Lakh</t>
-  </si>
-  <si>
-    <t>Tata NEXON</t>
-  </si>
-  <si>
-    <t>Rs. 5.85 Lakh - 11.16 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Elite i20</t>
-  </si>
-  <si>
-    <t>Rs. 4.47 Lakh - 7.32 Lakh</t>
-  </si>
-  <si>
-    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -214,29 +211,29 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -247,7 +244,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -258,7 +255,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -266,54 +263,54 @@
         <v>20</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -384,7 +381,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,11 +392,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>BikeNames</t>
   </si>
@@ -103,10 +103,10 @@
     <t>₹ 3.50 Lakh*</t>
   </si>
   <si>
-    <t>Honda Jazz</t>
-  </si>
-  <si>
-    <t>Rs. 4.23 Lakh - 7.89 Lakh</t>
+    <t>Tata Tiago</t>
+  </si>
+  <si>
+    <t>Rs. 3.65 Lakh - 7.67 Lakh</t>
   </si>
   <si>
     <t>Ford Ecosport</t>
@@ -115,22 +115,25 @@
     <t>Rs. 5.33 Lakh - 8.99 Lakh</t>
   </si>
   <si>
-    <t>Maruti Baleno</t>
-  </si>
-  <si>
-    <t>Rs. 5.29 Lakh - 7.59 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Brio</t>
-  </si>
-  <si>
-    <t>Rs. 4.03 Lakh - 5.25 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai NEW I20</t>
-  </si>
-  <si>
-    <t>Rs. 2.86 Lakh - 8.04 Lakh</t>
+    <t>Maruti Swift</t>
+  </si>
+  <si>
+    <t>Rs. 4.22 Lakh - 7.55 Lakh</t>
+  </si>
+  <si>
+    <t>KIA SELTOS</t>
+  </si>
+  <si>
+    <t>Rs. 9.68 Lakh - 16.28 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai Creta</t>
+  </si>
+  <si>
+    <t>Rs. 7.03 Lakh - 17.87 Lakh</t>
+  </si>
+  <si>
+    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,6 +395,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>BikeNames</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Rs. 7.03 Lakh - 17.87 Lakh</t>
-  </si>
-  <si>
-    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,11 +392,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>BikeNames</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Rs. 7.03 Lakh - 17.87 Lakh</t>
+  </si>
+  <si>
+    <t>Couldn’t find your Google Account</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -392,6 +395,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/HackExcelData.xlsx
+++ b/target/HackExcelData.xlsx
@@ -106,31 +106,31 @@
     <t>Tata Tiago</t>
   </si>
   <si>
-    <t>Rs. 3.65 Lakh - 7.67 Lakh</t>
+    <t>Rs. 4.09 Lakh - 7.67 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai GRAND I10 NIOS</t>
+  </si>
+  <si>
+    <t>Rs. 6.06 Lakh - 7.84 Lakh</t>
+  </si>
+  <si>
+    <t>Hyundai NEW SANTRO</t>
+  </si>
+  <si>
+    <t>Rs. 4.72 Lakh - 5.77 Lakh</t>
   </si>
   <si>
     <t>Ford Ecosport</t>
   </si>
   <si>
-    <t>Rs. 5.33 Lakh - 8.99 Lakh</t>
-  </si>
-  <si>
-    <t>Maruti Swift</t>
-  </si>
-  <si>
-    <t>Rs. 4.22 Lakh - 7.55 Lakh</t>
-  </si>
-  <si>
-    <t>KIA SELTOS</t>
-  </si>
-  <si>
-    <t>Rs. 9.68 Lakh - 16.28 Lakh</t>
-  </si>
-  <si>
-    <t>Hyundai Creta</t>
-  </si>
-  <si>
-    <t>Rs. 7.03 Lakh - 17.87 Lakh</t>
+    <t>Rs. 5.28 Lakh - 8.99 Lakh</t>
+  </si>
+  <si>
+    <t>Renault Kwid</t>
+  </si>
+  <si>
+    <t>Rs. 3.07 Lakh - 5.51 Lakh</t>
   </si>
   <si>
     <t>Couldn’t find your Google Account</t>
